--- a/biology/Botanique/Liste_des_genres_d'Asteraceae/Liste_des_genres_d'Asteraceae.xlsx
+++ b/biology/Botanique/Liste_des_genres_d'Asteraceae/Liste_des_genres_d'Asteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Asteraceae</t>
+          <t>Liste_des_genres_d'Asteraceae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des genres de la famille des Asteraceae, qui comprend notamment les pâquerettes et les tournesols, les asters, les tagètes ou œillets d'Inde, les anthémis, ainsi que les chrysanthèmes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Asteraceae</t>
+          <t>Liste_des_genres_d'Asteraceae</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Selon Catalogue of Life                                   (24 juillet 2017)[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aaronsohnia
@@ -1265,7 +1279,7 @@
 Hidalgoa
 Hieracium
 Hilliardia
-Hilliardiella[2]
+Hilliardiella
 Himalaiella
 Hinterhubera
 Hippia
@@ -2181,7 +2195,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Asteraceae</t>
+          <t>Liste_des_genres_d'Asteraceae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2201,7 +2215,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous-famille Asteroideae
+          <t>Sous-famille Asteroideae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 tribu Anthemideae
 Aaronsohnia
 Achillea
@@ -3089,8 +3109,43 @@
 Urbinella
 Varilla
 Vilobia
-Sous-famille Barnadesioideae
-Arnaldoa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-famille Barnadesioideae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arnaldoa
 Barnadesia
 Chuquiraga
 Dasyphyllum
@@ -3098,8 +3153,43 @@
 Duseniella
 Fulcaldea
 Huarpea
-Schlechtendalia
-Sous-famille Carduoideae
+Schlechtendalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-famille Carduoideae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 tribu Cardueae
 sous-tribu Cardopatiinae
 Cardopatium
@@ -3207,7 +3297,43 @@
 tribu Tarchonantheae
 Brachylaena
 Tarchonanthus
-sous-famille Cichorioideae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sous-famille Cichorioideae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 tribu Arctotideae
 sous-tribu Arctotidinae
 Arctotheca
@@ -3417,21 +3543,193 @@
 Tephrothamnus
 Cichorioideae incertae sedis
 Heterolepis
-Sous-famille Corymbioideae
-tribu Corymbieae
-Corymbium
-Sous-famille Gochnatioideae
-tribu Gochnatieae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-famille Corymbioideae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>tribu Corymbieae
+Corymbium</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-famille Gochnatioideae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>tribu Gochnatieae
 Cnicothamnus
 Cyclolepis
 Gochnatia
-Richterago
-Sous-famille Gymnarrhenoideae
-tribu Gymnarrheneae
-Gymnarrhena
-Sous-famille Hecastocleidoideae
-Hecastocleis
-Sous-famille Mutisioideae
+Richterago</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-famille Gymnarrhenoideae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>tribu Gymnarrheneae
+Gymnarrhena</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-famille Hecastocleidoideae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hecastocleis</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-famille Mutisioideae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 tribu Mutisieae
 Adenocaulon
 Brachyclados
@@ -3469,22 +3767,125 @@
 Onoseris
 Plazia
 Urmenetea
-Sous-famille Pertyoideae
-tribu Pertyeae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-famille Pertyoideae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>tribu Pertyeae
 Ainsliaea
 Catamixis
 Macroclinidium
 Myripnois
-Pertya
-Sous-famille Stifftioideae
-Duidaea
+Pertya</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-famille Stifftioideae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Duidaea
 tribu Stifftieae
 Dinoseris
 Gongylolepis
 Hyaloseris
-Stifftia
-Sous-famille Wunderlichioideae
-tribu Hyalideae
+Stifftia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 mai 2010)[3]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous-famille Wunderlichioideae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>tribu Hyalideae
 Hyalis
 Ianthopappus
 Leucomeris
@@ -3499,31 +3900,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_genres_d%27Asteraceae</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Selon DELTA Angio           (22 mai 2010)[4]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous le nom de Compositae:
 Aaronsohnia
@@ -5105,31 +5508,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_genres_d%27Asteraceae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_d'Asteraceae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_genres_d%27Asteraceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Selon ITIS      (22 mai 2010)[5]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acamptopappus (Gray) Gray
